--- a/MOMO銷售原始假資料.xlsx
+++ b/MOMO銷售原始假資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2D06E8-B5DF-4167-847D-7443FBBE6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD17A0-A1E3-4F11-BE8A-7B30EC56B12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B2CF2598-71DD-417E-8BF4-4BEBD02D6E20}"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B2CF2598-71DD-417E-8BF4-4BEBD02D6E20}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -104,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>轉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>銷售</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BD-2023123012345-04</t>
   </si>
   <si>
@@ -249,6 +232,14 @@
   </si>
   <si>
     <t>12335-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄倉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,6 +247,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -303,14 +299,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,26 +631,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80970C-8749-4529-8A3B-1329E00B8EC1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,31 +672,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -703,267 +705,267 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>550</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45261</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>550</v>
-      </c>
-      <c r="J2">
-        <v>20231201</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45262</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J3">
-        <v>20231202</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>250</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45263</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>250</v>
-      </c>
-      <c r="J4">
-        <v>20231203</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>800</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45264</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5">
-        <v>20231204</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45265</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6">
-        <v>20231205</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45266</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>300</v>
-      </c>
-      <c r="J7">
-        <v>20231206</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45267</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>20231207</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
+      <c r="I9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45268</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1500</v>
-      </c>
-      <c r="J9">
-        <v>20231208</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -983,19 +985,19 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>550</v>
       </c>
-      <c r="J10">
-        <v>20231201</v>
+      <c r="J10" s="2">
+        <v>45269</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MOMO銷售原始假資料.xlsx
+++ b/MOMO銷售原始假資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD17A0-A1E3-4F11-BE8A-7B30EC56B12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32925534-1074-433D-8180-E45EE01D1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B2CF2598-71DD-417E-8BF4-4BEBD02D6E20}"/>
+    <workbookView xWindow="1770" yWindow="790" windowWidth="14400" windowHeight="9960" xr2:uid="{B2CF2598-71DD-417E-8BF4-4BEBD02D6E20}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="2" r:id="rId1"/>
@@ -631,26 +631,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80970C-8749-4529-8A3B-1329E00B8EC1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -720,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -755,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -790,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -860,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -930,7 +930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
